--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassw/SOURCE/kainos/NOMS/WMT/wmt-etl/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassw/SOURCE/kainos/NOMS/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>Trust</t>
   </si>
@@ -164,9 +164,6 @@
     <t>London</t>
   </si>
   <si>
-    <t>LDN</t>
-  </si>
-  <si>
     <t>KainosLDU</t>
   </si>
   <si>
@@ -225,13 +222,61 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>OM_Name</t>
+  </si>
+  <si>
+    <t>Parom_Comp_Last_30</t>
+  </si>
+  <si>
+    <t>Parom_Due_Next_30</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>NPSQ</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X555555</t>
+  </si>
+  <si>
+    <t>X444444</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ND02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,16 +294,43 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,17 +338,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCAC9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCAC9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCAC9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCAC9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,28 +863,28 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
       </c>
       <c r="K2">
         <v>1001</v>
@@ -848,28 +988,28 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
       </c>
       <c r="K3">
         <v>1002</v>
@@ -972,60 +1112,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,48 +1231,85 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1098,23 +1319,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1126,7 +1356,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1136,23 +1412,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1164,7 +1440,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1174,23 +1496,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1202,7 +1524,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1212,23 +1580,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1240,7 +1608,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -101,30 +101,6 @@
     <t>CommTierA</t>
   </si>
   <si>
-    <t>LicenseTier0</t>
-  </si>
-  <si>
-    <t>LicenseTierD2</t>
-  </si>
-  <si>
-    <t>LicenseTierD1</t>
-  </si>
-  <si>
-    <t>LicenseTierC2</t>
-  </si>
-  <si>
-    <t>LicenseTierC1</t>
-  </si>
-  <si>
-    <t>LicenseTierB2</t>
-  </si>
-  <si>
-    <t>LicenseTierB1</t>
-  </si>
-  <si>
-    <t>LicenseTierA</t>
-  </si>
-  <si>
     <t>CustTier0</t>
   </si>
   <si>
@@ -270,6 +246,30 @@
   </si>
   <si>
     <t>ND02</t>
+  </si>
+  <si>
+    <t>LicenceTier0</t>
+  </si>
+  <si>
+    <t>LicenceTierD2</t>
+  </si>
+  <si>
+    <t>LicenceTierD1</t>
+  </si>
+  <si>
+    <t>LicenceTierC2</t>
+  </si>
+  <si>
+    <t>LicenceTierC1</t>
+  </si>
+  <si>
+    <t>LicenceTierB2</t>
+  </si>
+  <si>
+    <t>LicenceTierB1</t>
+  </si>
+  <si>
+    <t>LicenceTierA</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,93 +798,93 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
       </c>
       <c r="K2">
         <v>1001</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
       </c>
       <c r="K3">
         <v>1002</v>
@@ -1133,42 +1133,42 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1001</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1002</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -1245,39 +1245,39 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1001</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1288,19 +1288,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1002</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1338,13 +1338,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1356,53 +1356,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1422,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1440,53 +1440,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1506,13 +1506,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1524,53 +1524,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1590,13 +1590,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1608,53 +1608,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassw/SOURCE/kainos/NOMS/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>ND02</t>
+    <t>ND01</t>
   </si>
   <si>
     <t>LicenceTier0</t>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1280,9 @@
         <v>49</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="3">

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -182,12 +182,6 @@
     <t>SDR_Conv_Last_30</t>
   </si>
   <si>
-    <t>1001|WMT|C</t>
-  </si>
-  <si>
-    <t>1002|WMT|Z</t>
-  </si>
-  <si>
     <t>Row_Type</t>
   </si>
   <si>
@@ -233,12 +227,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -270,6 +258,18 @@
   </si>
   <si>
     <t>LicenceTierA</t>
+  </si>
+  <si>
+    <t>1004|WMT|C</t>
+  </si>
+  <si>
+    <t>1005|WMT|Z</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,28 +798,28 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -863,7 +863,7 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
@@ -887,7 +887,7 @@
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="L2">
         <v>10</v>
@@ -988,7 +988,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -1012,7 +1012,7 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -1114,7 +1114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1133,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -1165,10 +1167,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1194,10 +1196,10 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -1221,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -1254,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
@@ -1274,10 +1276,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1300,10 +1302,10 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1325,7 +1327,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,13 +1343,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1359,53 +1361,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1418,20 +1420,20 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1443,53 +1445,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1502,20 +1504,20 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1527,53 +1529,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1585,21 +1587,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1611,53 +1613,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
-    <sheet name="Court_Reports" sheetId="2" r:id="rId2"/>
-    <sheet name="Inst_Reports" sheetId="3" r:id="rId3"/>
-    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId4"/>
-    <sheet name="Flag_Upw" sheetId="5" r:id="rId5"/>
-    <sheet name="Flag_O_Due" sheetId="6" r:id="rId6"/>
-    <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
+    <sheet name="CMS" sheetId="8" r:id="rId2"/>
+    <sheet name="Court_Reports" sheetId="2" r:id="rId3"/>
+    <sheet name="Inst_Reports" sheetId="3" r:id="rId4"/>
+    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId5"/>
+    <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
+    <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
+    <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>Trust</t>
   </si>
@@ -270,13 +271,62 @@
   </si>
   <si>
     <t>1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_ID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_Date
+</t>
+  </si>
+  <si>
+    <t>Contact_Type_Code</t>
+  </si>
+  <si>
+    <t>Contact_Type_Desc</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Name</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Key</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Contact_Team_Key</t>
+  </si>
+  <si>
+    <t>Contact_Provider_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Grade
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Team_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Provider_Code
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +364,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -396,7 +451,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,6 +466,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -694,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -1112,6 +1170,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1219,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1322,7 +1439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1415,90 +1532,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
@@ -1534,47 +1567,47 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1587,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1618,6 +1651,90 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="5" t="s">

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="100">
   <si>
     <t>Trust</t>
   </si>
@@ -320,6 +320,27 @@
   <si>
     <t xml:space="preserve">OM_Provider_Code
 </t>
+  </si>
+  <si>
+    <t>CMS2</t>
+  </si>
+  <si>
+    <t>The second type</t>
+  </si>
+  <si>
+    <t>Tom Swann</t>
+  </si>
+  <si>
+    <t>Any Wright</t>
+  </si>
+  <si>
+    <t>CMS1</t>
+  </si>
+  <si>
+    <t>The first type</t>
+  </si>
+  <si>
+    <t>Andy Wright</t>
   </si>
 </sst>
 </file>
@@ -451,7 +472,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,6 +491,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,6 +1245,94 @@
       </c>
       <c r="N1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>654</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42991</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2">
+        <v>1002</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>678</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>1002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
+        <v>1001</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
   <si>
     <t>Trust</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Farringdon</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>KainosLDU</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
   </si>
   <si>
     <t>I</t>
-  </si>
-  <si>
-    <t>ND01</t>
   </si>
   <si>
     <t>LicenceTier0</t>
@@ -341,6 +335,21 @@
   </si>
   <si>
     <t>Andy Wright</t>
+  </si>
+  <si>
+    <t>ND02</t>
+  </si>
+  <si>
+    <t>Swann II</t>
+  </si>
+  <si>
+    <t>Wright II</t>
+  </si>
+  <si>
+    <t>WMT (ND02)</t>
+  </si>
+  <si>
+    <t>London II</t>
   </si>
 </sst>
 </file>
@@ -778,7 +787,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,28 +890,28 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -943,31 +952,31 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
       </c>
       <c r="K2">
         <v>1004</v>
@@ -1068,31 +1077,31 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
       </c>
       <c r="K3">
         <v>1005</v>
@@ -1198,53 +1207,53 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
-      </c>
-      <c r="M1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1255,40 +1264,40 @@
         <v>42991</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>1004</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2">
-        <v>1001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
-      </c>
       <c r="K2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1299,40 +1308,40 @@
         <v>42991</v>
       </c>
       <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3">
+        <v>1005</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3">
-        <v>1002</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1365,22 +1374,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
       </c>
       <c r="I1" t="s">
         <v>32</v>
@@ -1388,19 +1397,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2">
         <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1417,19 +1426,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -1477,19 +1486,19 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
@@ -1497,19 +1506,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2">
         <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1523,19 +1532,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1573,13 +1582,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1591,53 +1600,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1657,13 +1666,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1675,53 +1684,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1741,13 +1750,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1759,53 +1768,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1825,13 +1834,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1843,53 +1852,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
-    <sheet name="Court_Reports" sheetId="2" r:id="rId2"/>
-    <sheet name="Inst_Reports" sheetId="3" r:id="rId3"/>
-    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId4"/>
-    <sheet name="Flag_Upw" sheetId="5" r:id="rId5"/>
-    <sheet name="Flag_O_Due" sheetId="6" r:id="rId6"/>
-    <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
+    <sheet name="CMS" sheetId="8" r:id="rId2"/>
+    <sheet name="Court_Reports" sheetId="2" r:id="rId3"/>
+    <sheet name="Inst_Reports" sheetId="3" r:id="rId4"/>
+    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId5"/>
+    <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
+    <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
+    <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
   <si>
     <t>Trust</t>
   </si>
@@ -137,9 +138,6 @@
     <t>Farringdon</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>KainosLDU</t>
   </si>
   <si>
@@ -233,9 +231,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>ND01</t>
-  </si>
-  <si>
     <t>LicenceTier0</t>
   </si>
   <si>
@@ -270,13 +265,98 @@
   </si>
   <si>
     <t>1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_ID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_Date
+</t>
+  </si>
+  <si>
+    <t>Contact_Type_Code</t>
+  </si>
+  <si>
+    <t>Contact_Type_Desc</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Name</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Key</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Contact_Team_Key</t>
+  </si>
+  <si>
+    <t>Contact_Provider_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Grade
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Team_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Provider_Code
+</t>
+  </si>
+  <si>
+    <t>CMS2</t>
+  </si>
+  <si>
+    <t>The second type</t>
+  </si>
+  <si>
+    <t>Tom Swann</t>
+  </si>
+  <si>
+    <t>Any Wright</t>
+  </si>
+  <si>
+    <t>CMS1</t>
+  </si>
+  <si>
+    <t>The first type</t>
+  </si>
+  <si>
+    <t>Andy Wright</t>
+  </si>
+  <si>
+    <t>ND02</t>
+  </si>
+  <si>
+    <t>Swann II</t>
+  </si>
+  <si>
+    <t>Wright II</t>
+  </si>
+  <si>
+    <t>WMT (ND02)</t>
+  </si>
+  <si>
+    <t>London II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +394,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -396,7 +481,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +497,13 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -694,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,28 +890,28 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -860,31 +952,31 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
       </c>
       <c r="K2">
         <v>1004</v>
@@ -985,31 +1077,31 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
       </c>
       <c r="K3">
         <v>1005</v>
@@ -1111,6 +1203,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>654</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42991</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>1004</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2">
+        <v>1005</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>678</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3">
+        <v>1005</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3">
+        <v>1004</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1135,22 +1374,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
       </c>
       <c r="I1" t="s">
         <v>32</v>
@@ -1158,19 +1397,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2">
         <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1187,19 +1426,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -1219,7 +1458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1247,19 +1486,19 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
@@ -1267,19 +1506,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2">
         <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1293,19 +1532,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1322,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1343,13 +1582,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1361,137 +1600,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1511,13 +1666,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1529,53 +1684,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>57</v>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1595,13 +1750,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1613,53 +1768,137 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
+    <sheet name="GS" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="110">
   <si>
     <t>Trust</t>
   </si>
@@ -350,6 +351,27 @@
   </si>
   <si>
     <t>London II</t>
+  </si>
+  <si>
+    <t>GS1</t>
+  </si>
+  <si>
+    <t>Group supervision</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>ND01</t>
+  </si>
+  <si>
+    <t>James Smith</t>
+  </si>
+  <si>
+    <t>John Smith</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1904,4 +1926,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>555</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2">
+        <v>1357</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>666</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43033</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3">
+        <v>9876</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="109">
   <si>
     <t>Trust</t>
   </si>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>PO</t>
-  </si>
-  <si>
-    <t>T1</t>
   </si>
   <si>
     <t>ND01</t>
@@ -1933,10 +1930,13 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1981,19 +1981,19 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2">
-        <v>1357</v>
+        <v>1001</v>
       </c>
       <c r="G2" t="s">
         <v>105</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
         <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2010,19 +2010,19 @@
         <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3">
-        <v>9876</v>
+        <v>1002</v>
       </c>
       <c r="G3" t="s">
         <v>105</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
-    <sheet name="CMS" sheetId="8" r:id="rId2"/>
-    <sheet name="Court_Reports" sheetId="2" r:id="rId3"/>
-    <sheet name="Inst_Reports" sheetId="3" r:id="rId4"/>
-    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId5"/>
-    <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
-    <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
-    <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
-    <sheet name="GS" sheetId="11" r:id="rId9"/>
+    <sheet name="T2A" sheetId="12" r:id="rId2"/>
+    <sheet name="CMS" sheetId="8" r:id="rId3"/>
+    <sheet name="Court_Reports" sheetId="2" r:id="rId4"/>
+    <sheet name="Inst_Reports" sheetId="3" r:id="rId5"/>
+    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId6"/>
+    <sheet name="Flag_Upw" sheetId="5" r:id="rId7"/>
+    <sheet name="Flag_O_Due" sheetId="6" r:id="rId8"/>
+    <sheet name="Flag_Priority" sheetId="7" r:id="rId9"/>
+    <sheet name="GS" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
   <si>
     <t>Trust</t>
   </si>
@@ -375,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,6 +419,13 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -495,12 +503,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -524,10 +534,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,7 +820,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1235,502 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>555</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>666</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43033</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3">
+        <v>1002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1004</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>0</v>
+      </c>
+      <c r="V2" s="11">
+        <v>0</v>
+      </c>
+      <c r="W2" s="11">
+        <v>6</v>
+      </c>
+      <c r="X2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>1005</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <v>12</v>
+      </c>
+      <c r="U3" s="11">
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -1368,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1477,7 +1986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1580,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1673,90 +2182,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
@@ -1792,47 +2217,47 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1876,7 +2301,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>60</v>
@@ -1899,7 +2324,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>61</v>
@@ -1927,102 +2352,81 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>555</v>
-      </c>
-      <c r="B2" s="9">
-        <v>43033</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2">
-        <v>1001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>666</v>
-      </c>
-      <c r="B3" s="9">
-        <v>43033</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3">
-        <v>1002</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>106</v>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
+    <sheet name="ARMS" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
   <si>
     <t>Trust</t>
   </si>
@@ -350,13 +351,72 @@
   </si>
   <si>
     <t>London II</t>
+  </si>
+  <si>
+    <t>Assessment_Date</t>
+  </si>
+  <si>
+    <t>Assessment_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Desc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Staff_Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Staff_Key
+</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessmentent_Team_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Provider_Code
+</t>
+  </si>
+  <si>
+    <t>Disposal_or_Release_Date</t>
+  </si>
+  <si>
+    <t>Sentence Type</t>
+  </si>
+  <si>
+    <t>SO_Registration_Date</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>ARMS1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>C1234567</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Test Arms Assessment</t>
+  </si>
+  <si>
+    <t>C1234568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -400,8 +460,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +480,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B64A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FBFC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -475,13 +553,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +623,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -787,7 +918,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,4 +2035,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>42991</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>1005</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="9">
+        <v>42991</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="9">
+        <v>42991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>1005</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="9">
+        <v>42991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
   <si>
     <t>Trust</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Disposal_or_Release_Date</t>
   </si>
   <si>
-    <t>Sentence Type</t>
-  </si>
-  <si>
     <t>SO_Registration_Date</t>
   </si>
   <si>
@@ -409,7 +406,7 @@
     <t>Test Arms Assessment</t>
   </si>
   <si>
-    <t>C1234568</t>
+    <t>Sentence_Type</t>
   </si>
 </sst>
 </file>
@@ -2039,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2087,16 +2084,16 @@
         <v>110</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>111</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2104,10 +2101,10 @@
         <v>42991</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>97</v>
@@ -2122,56 +2119,18 @@
         <v>101</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
         <v>116</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
       </c>
       <c r="J2" s="9">
         <v>42991</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="9">
-        <v>42991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>42991</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3">
-        <v>1005</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="9">
-        <v>42991</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="9">
         <v>42991</v>
       </c>
     </row>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
   <si>
     <t>Trust</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>Sentence_Type</t>
+  </si>
+  <si>
+    <t>ARMS2</t>
+  </si>
+  <si>
+    <t>C1234519</t>
   </si>
 </sst>
 </file>
@@ -2036,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,6 +2140,44 @@
         <v>42991</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>1004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="9">
+        <v>42991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
+    <sheet name="ARMS" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
   <si>
     <t>Trust</t>
   </si>
@@ -350,13 +351,75 @@
   </si>
   <si>
     <t>London II</t>
+  </si>
+  <si>
+    <t>Assessment_Date</t>
+  </si>
+  <si>
+    <t>Assessment_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Desc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Staff_Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Staff_Key
+</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessmentent_Team_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment_Provider_Code
+</t>
+  </si>
+  <si>
+    <t>Disposal_or_Release_Date</t>
+  </si>
+  <si>
+    <t>SO_Registration_Date</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>ARMS1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>C1234567</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Test Arms Assessment</t>
+  </si>
+  <si>
+    <t>Sentence_Type</t>
+  </si>
+  <si>
+    <t>ARMS2</t>
+  </si>
+  <si>
+    <t>C1234519</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -400,8 +463,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +483,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B64A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FBFC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -475,13 +556,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +626,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -787,7 +921,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,4 +2038,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>42991</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>1005</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="9">
+        <v>42991</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="9">
+        <v>42991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>1004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="9">
+        <v>42991</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="9">
+        <v>42991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
   <si>
     <t>Trust</t>
   </si>
@@ -354,9 +354,6 @@
     <t>London II</t>
   </si>
   <si>
-    <t>GS1</t>
-  </si>
-  <si>
     <t>Group supervision</t>
   </si>
   <si>
@@ -427,6 +424,12 @@
   </si>
   <si>
     <t>C1234519</t>
+  </si>
+  <si>
+    <t>NGS004</t>
+  </si>
+  <si>
+    <t>NGS002</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
@@ -1431,40 +1434,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1472,10 +1475,10 @@
         <v>42991</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
@@ -1490,16 +1493,16 @@
         <v>101</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="J2" s="15">
         <v>42991</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2" s="15">
         <v>42991</v>
@@ -1510,10 +1513,10 @@
         <v>42991</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>93</v>
@@ -1528,10 +1531,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="15">
         <v>42991</v>
@@ -2256,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2302,25 +2305,25 @@
         <v>43033</v>
       </c>
       <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>1001</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2331,25 +2334,25 @@
         <v>43033</v>
       </c>
       <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>1002</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
-    <sheet name="T2A" sheetId="12" r:id="rId2"/>
-    <sheet name="CMS" sheetId="8" r:id="rId3"/>
-    <sheet name="Court_Reports" sheetId="2" r:id="rId4"/>
-    <sheet name="Inst_Reports" sheetId="3" r:id="rId5"/>
-    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId6"/>
-    <sheet name="Flag_Upw" sheetId="5" r:id="rId7"/>
-    <sheet name="Flag_O_Due" sheetId="6" r:id="rId8"/>
-    <sheet name="Flag_Priority" sheetId="7" r:id="rId9"/>
-    <sheet name="GS" sheetId="11" r:id="rId10"/>
+    <sheet name="CMS" sheetId="8" r:id="rId2"/>
+    <sheet name="Court_Reports" sheetId="2" r:id="rId3"/>
+    <sheet name="Inst_Reports" sheetId="3" r:id="rId4"/>
+    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId5"/>
+    <sheet name="Flag_Upw" sheetId="5" r:id="rId6"/>
+    <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
+    <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
+    <sheet name="GS" sheetId="11" r:id="rId9"/>
+    <sheet name="T2A" sheetId="13" r:id="rId10"/>
+    <sheet name="ARMS" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="129">
   <si>
     <t>Trust</t>
   </si>
@@ -354,9 +355,6 @@
     <t>London II</t>
   </si>
   <si>
-    <t>GS1</t>
-  </si>
-  <si>
     <t>Group supervision</t>
   </si>
   <si>
@@ -370,13 +368,76 @@
   </si>
   <si>
     <t>John Smith</t>
+  </si>
+  <si>
+    <t>Assessment_Date</t>
+  </si>
+  <si>
+    <t>Assessment_Code</t>
+  </si>
+  <si>
+    <t>Assessment_Desc</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Name</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Assessmentent_Team_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Provider_Code</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>Disposal_or_Release_Date</t>
+  </si>
+  <si>
+    <t>Sentence_Type</t>
+  </si>
+  <si>
+    <t>SO_Registration_Date</t>
+  </si>
+  <si>
+    <t>ARMS1</t>
+  </si>
+  <si>
+    <t>Test Arms Assessment</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>C1234567</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>ARMS2</t>
+  </si>
+  <si>
+    <t>C1234519</t>
+  </si>
+  <si>
+    <t>NGS004</t>
+  </si>
+  <si>
+    <t>NGS002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,6 +482,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -428,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +508,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B64A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FBFC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -502,15 +581,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEBEBEB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,14 +700,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,7 +1009,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,102 +1426,516 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>555</v>
-      </c>
-      <c r="B2" s="9">
-        <v>43033</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2">
-        <v>1001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>666</v>
-      </c>
-      <c r="B3" s="9">
-        <v>43033</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1004</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>6</v>
+      </c>
+      <c r="X2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="21">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1005</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>12</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="37" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F3">
-        <v>1002</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
+      <c r="B1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>42991</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1005</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="15">
+        <v>42991</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="15">
+        <v>42991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>42991</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1004</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="15">
+        <v>42991</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="15">
+        <v>42991</v>
       </c>
     </row>
   </sheetData>
@@ -1341,396 +1944,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="11">
-        <v>1004</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11">
-        <v>0</v>
-      </c>
-      <c r="W2" s="11">
-        <v>6</v>
-      </c>
-      <c r="X2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3">
-        <v>1005</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11">
-        <v>12</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0</v>
-      </c>
-      <c r="W3" s="11">
-        <v>0</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
@@ -1877,7 +2090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1986,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2089,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2182,6 +2395,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
@@ -2217,47 +2514,47 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2301,7 +2598,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>60</v>
@@ -2324,7 +2621,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>61</v>
@@ -2352,81 +2649,102 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>555</v>
+      </c>
+      <c r="B2" s="9">
+        <v>43033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>666</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43033</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>1002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
+      <c r="I3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
   <si>
     <t>Trust</t>
   </si>
@@ -357,16 +357,7 @@
     <t>Group supervision</t>
   </si>
   <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>ND01</t>
-  </si>
-  <si>
-    <t>James Smith</t>
-  </si>
-  <si>
-    <t>John Smith</t>
   </si>
   <si>
     <t>Assessment_Date</t>
@@ -1434,40 +1425,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1475,10 +1466,10 @@
         <v>42991</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
@@ -1493,16 +1484,16 @@
         <v>101</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J2" s="15">
         <v>42991</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L2" s="15">
         <v>42991</v>
@@ -1513,10 +1504,10 @@
         <v>42991</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>93</v>
@@ -1531,10 +1522,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J3" s="15">
         <v>42991</v>
@@ -1555,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2259,12 +2250,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2305,25 +2297,25 @@
         <v>43033</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2334,25 +2326,25 @@
         <v>43033</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
         <v>104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,7 @@
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId7"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
     <sheet name="GS" sheetId="11" r:id="rId9"/>
-    <sheet name="T2A" sheetId="13" r:id="rId10"/>
-    <sheet name="ARMS" sheetId="12" r:id="rId11"/>
+    <sheet name="ARMS" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
   <si>
     <t>Trust</t>
   </si>
@@ -358,16 +357,7 @@
     <t>Group supervision</t>
   </si>
   <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>ND01</t>
-  </si>
-  <si>
-    <t>James Smith</t>
-  </si>
-  <si>
-    <t>John Smith</t>
   </si>
   <si>
     <t>Assessment_Date</t>
@@ -676,7 +666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,7 +716,6 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1426,396 +1415,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="18">
-        <v>1004</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <v>6</v>
-      </c>
-      <c r="X2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="21">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="18">
-        <v>1005</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>12</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="21">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1826,40 +1425,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1867,10 +1466,10 @@
         <v>42991</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
@@ -1885,16 +1484,16 @@
         <v>101</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J2" s="15">
         <v>42991</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L2" s="15">
         <v>42991</v>
@@ -1905,10 +1504,10 @@
         <v>42991</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>93</v>
@@ -1923,10 +1522,10 @@
         <v>101</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J3" s="15">
         <v>42991</v>
@@ -1947,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2652,11 +2251,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2697,25 +2297,25 @@
         <v>43033</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2726,25 +2326,25 @@
         <v>43033</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F3">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
         <v>104</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="9960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="131">
   <si>
     <t>Trust</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>KainosLDU</t>
-  </si>
-  <si>
-    <t>KNS</t>
   </si>
   <si>
     <t>WMT Team</t>
@@ -421,13 +418,36 @@
   </si>
   <si>
     <t>NGS002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trust
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region_Desc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDU_Desc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDU_Code
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral_reports
+</t>
+  </si>
+  <si>
+    <t>KNS02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,8 +504,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,8 +541,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -660,13 +703,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="31"/>
+      </left>
+      <right style="thin">
+        <color indexed="31"/>
+      </right>
+      <top style="thin">
+        <color indexed="31"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="31"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -714,6 +772,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -998,7 +1065,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -1163,31 +1230,31 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
       </c>
       <c r="K2">
         <v>1004</v>
@@ -1288,31 +1355,31 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
       <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
       </c>
       <c r="K3">
         <v>1005</v>
@@ -1425,40 +1492,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1466,34 +1533,34 @@
         <v>42991</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="D2" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="18">
         <v>1005</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="J2" s="15">
         <v>42991</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2" s="15">
         <v>42991</v>
@@ -1504,34 +1571,34 @@
         <v>42991</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="18">
         <v>1004</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" s="15">
         <v>42991</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="15">
         <v>42991</v>
@@ -1546,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1554,46 +1621,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>88</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1604,40 +1671,40 @@
         <v>42991</v>
       </c>
       <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
       <c r="F2">
         <v>1004</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>1005</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1648,40 +1715,40 @@
         <v>42991</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
       </c>
       <c r="F3">
         <v>1005</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>1004</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1691,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,92 +1771,166 @@
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="D2">
+      <c r="J2">
         <v>1004</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>1005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>1005</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
+      <c r="M3">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="N3">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="O3">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3">
         <v>42795.628472222219</v>
       </c>
     </row>
@@ -1826,19 +1967,19 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
@@ -1846,19 +1987,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
       <c r="D2">
         <v>1004</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1872,19 +2013,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1005</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1922,13 +2063,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1940,53 +2081,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2006,13 +2147,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -2024,53 +2165,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2090,13 +2231,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -2108,53 +2249,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2174,13 +2315,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -2192,53 +2333,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2262,31 +2403,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2297,25 +2438,25 @@
         <v>43033</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>1004</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,25 +2467,25 @@
         <v>43033</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <v>1005</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derejed/Projects/HMMPS/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-2900" yWindow="-17420" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Flag_Priority" sheetId="7" r:id="rId8"/>
     <sheet name="GS" sheetId="11" r:id="rId9"/>
     <sheet name="ARMS" sheetId="12" r:id="rId10"/>
+    <sheet name="T2A" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="126">
   <si>
     <t>Trust</t>
   </si>
@@ -666,7 +667,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,6 +717,7 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1542,11 +1544,401 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AO3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1004</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>6</v>
+      </c>
+      <c r="X2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="21">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1005</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <v>12</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="143">
   <si>
     <t>Trust</t>
   </si>
@@ -441,6 +441,42 @@
   </si>
   <si>
     <t>KNS02</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>KNS</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>2001|WMT|Z</t>
+  </si>
+  <si>
+    <t>CR LDU</t>
+  </si>
+  <si>
+    <t>CRLDU</t>
+  </si>
+  <si>
+    <t>CR Team</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>2002|WMT|C</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1797,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1833,49 +1869,49 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="J2">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="M2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="O2">
-        <v>24</v>
-      </c>
       <c r="P2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="3">
         <v>42795.628472222219</v>
@@ -1886,49 +1922,49 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="J3">
-        <v>1005</v>
+        <v>2002</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="3">
         <v>42795.628472222219</v>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="9960" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="9960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
     <sheet name="CMS" sheetId="8" r:id="rId2"/>
     <sheet name="Court_Reports" sheetId="2" r:id="rId3"/>
     <sheet name="T2A" sheetId="13" r:id="rId4"/>
-    <sheet name="Inst_Reports" sheetId="3" r:id="rId5"/>
-    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId6"/>
-    <sheet name="Flag_Upw" sheetId="5" r:id="rId7"/>
-    <sheet name="Flag_O_Due" sheetId="6" r:id="rId8"/>
-    <sheet name="Flag_Priority" sheetId="7" r:id="rId9"/>
-    <sheet name="GS" sheetId="11" r:id="rId10"/>
-    <sheet name="ARMS" sheetId="12" r:id="rId11"/>
+    <sheet name="WMT_Extract_SA" sheetId="14" r:id="rId5"/>
+    <sheet name="Inst_Reports" sheetId="3" r:id="rId6"/>
+    <sheet name="Flag_Warr_4_n" sheetId="4" r:id="rId7"/>
+    <sheet name="Flag_Upw" sheetId="5" r:id="rId8"/>
+    <sheet name="Flag_O_Due" sheetId="6" r:id="rId9"/>
+    <sheet name="Flag_Priority" sheetId="7" r:id="rId10"/>
+    <sheet name="GS" sheetId="11" r:id="rId11"/>
+    <sheet name="ARMS" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="146">
   <si>
     <t>Trust</t>
   </si>
@@ -478,6 +479,15 @@
   </si>
   <si>
     <t>2002|WMT|C</t>
+  </si>
+  <si>
+    <t>Disposal_Type_Desc</t>
+  </si>
+  <si>
+    <t>Disposal_Type_Code</t>
+  </si>
+  <si>
+    <t>Standalone_Order</t>
   </si>
 </sst>
 </file>
@@ -553,7 +563,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +600,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -755,13 +771,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +865,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1520,6 +1570,90 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1624,7 +1758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -2087,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AO3"/>
     </sheetView>
   </sheetViews>
@@ -2474,6 +2608,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2576,7 +2754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2669,90 +2847,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
@@ -2788,47 +2882,47 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2872,7 +2966,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>59</v>
@@ -2895,7 +2989,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>60</v>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="155">
   <si>
     <t>Trust</t>
   </si>
@@ -488,13 +488,40 @@
   </si>
   <si>
     <t>Standalone_Order</t>
+  </si>
+  <si>
+    <t>D42237</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>ORA Suspended Sentence Order</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>SA Curfew</t>
+  </si>
+  <si>
+    <t>D42371</t>
+  </si>
+  <si>
+    <t>CJA - Suspended Sentence Order</t>
+  </si>
+  <si>
+    <t>SA SSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +588,19 @@
       <sz val="6"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -800,12 +840,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,16 +907,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1153,7 +1204,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2609,42 +2660,123 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="2" max="2" width="8.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="29"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="28" t="s">
         <v>145</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wmt_etl/tests/data/full_inputs/ND02.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="9960" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="9960" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,6 @@
     <t>Assessment_Staff_Grade</t>
   </si>
   <si>
-    <t>Assessmentent_Team_Key</t>
-  </si>
-  <si>
     <t>Assessment_Provider_Code</t>
   </si>
   <si>
@@ -515,6 +512,9 @@
   </si>
   <si>
     <t>SA SSO</t>
+  </si>
+  <si>
+    <t>Assessment_Team_Key</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1378,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1754,7 +1754,7 @@
         <v>43033</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>
@@ -1783,7 +1783,7 @@
         <v>43033</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>102</v>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,22 +1839,22 @@
         <v>109</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1862,10 +1862,10 @@
         <v>42991</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>96</v>
@@ -1880,16 +1880,16 @@
         <v>100</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="J2" s="15">
         <v>42991</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="15">
         <v>42991</v>
@@ -1900,10 +1900,10 @@
         <v>42991</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>92</v>
@@ -1918,10 +1918,10 @@
         <v>100</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="15">
         <v>42991</v>
@@ -2106,19 +2106,19 @@
   <sheetData>
     <row r="1" spans="1:17" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>126</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>128</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>5</v>
@@ -2151,7 +2151,7 @@
         <v>46</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>32</v>
@@ -2162,7 +2162,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2171,7 +2171,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2180,10 +2180,10 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
         <v>133</v>
-      </c>
-      <c r="I2" t="s">
-        <v>134</v>
       </c>
       <c r="J2">
         <v>2001</v>
@@ -2192,7 +2192,7 @@
         <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -2215,28 +2215,28 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
       </c>
       <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>137</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>138</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>140</v>
-      </c>
-      <c r="I3" t="s">
-        <v>141</v>
       </c>
       <c r="J3">
         <v>2002</v>
@@ -2245,7 +2245,7 @@
         <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -2417,7 +2417,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>35</v>
@@ -2542,7 +2542,7 @@
         <v>34</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>35</v>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2700,27 +2700,27 @@
         <v>50</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>144</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>74</v>
@@ -2729,18 +2729,18 @@
         <v>55</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>56</v>
@@ -2758,13 +2758,13 @@
         <v>55</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
